--- a/examples/data/Animais_proj.xlsx
+++ b/examples/data/Animais_proj.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Documents\Trabalho\INTRASOM\Testes_dev\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Documents\Trabalho\INTRASOM\Versões\Software_impacts\Intrasom_en\examples\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8228536E-6D43-4549-B691-DDC6FDE74DBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC919D09-BA0C-4505-B20E-E4A7B0C6A9B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,55 +24,55 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>Pequeno</t>
-  </si>
-  <si>
-    <t>Médio</t>
-  </si>
-  <si>
-    <t>Grande</t>
-  </si>
-  <si>
-    <t>2 patas</t>
-  </si>
-  <si>
-    <t>4 patas</t>
-  </si>
-  <si>
-    <t>Juba</t>
-  </si>
-  <si>
-    <t>Caça</t>
-  </si>
-  <si>
-    <t>Corre</t>
-  </si>
-  <si>
-    <t>Voa</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>Casco</t>
-  </si>
-  <si>
-    <t>Pêlo</t>
-  </si>
-  <si>
-    <t>Pena</t>
-  </si>
-  <si>
-    <t>Animais</t>
-  </si>
-  <si>
-    <t>Babuino</t>
-  </si>
-  <si>
-    <t>Beija-Flor</t>
-  </si>
-  <si>
-    <t>Onça</t>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Big</t>
+  </si>
+  <si>
+    <t>2 legs</t>
+  </si>
+  <si>
+    <t>4 legs</t>
+  </si>
+  <si>
+    <t>Hair</t>
+  </si>
+  <si>
+    <t>Hooves</t>
+  </si>
+  <si>
+    <t>Mane</t>
+  </si>
+  <si>
+    <t>Feather</t>
+  </si>
+  <si>
+    <t>Hunt</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Fly</t>
+  </si>
+  <si>
+    <t>Swin</t>
+  </si>
+  <si>
+    <t>Animals</t>
+  </si>
+  <si>
+    <t>Baboon</t>
+  </si>
+  <si>
+    <t>Hummingbird</t>
+  </si>
+  <si>
+    <t>Panther</t>
   </si>
 </sst>
 </file>
@@ -451,10 +451,13 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -476,28 +479,28 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
